--- a/src/files/energiebilanzen/checks/Wie_sector_energy_consumption_idx_check_df.xlsx
+++ b/src/files/energiebilanzen/checks/Wie_sector_energy_consumption_idx_check_df.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BG10"/>
+  <dimension ref="A1:BE10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -582,145 +582,135 @@
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Mischgas</t>
+          <t>Hochofengas</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Tiegelgas</t>
+          <t>Gichtgas</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>Hochofengas</t>
+          <t>Kokereigas</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Gichtgas</t>
+          <t>Industrieabfall</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Kokereigas</t>
+          <t>Hausmüll nicht erneuerbar</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>Industrieabfall</t>
+          <t>Brennbare Abfälle</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>Hausmüll nicht erneuerbar</t>
+          <t>Scheitholz</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>Brennbare Abfälle</t>
+          <t>Hausmüll Bioanteil</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>Scheitholz</t>
+          <t>Holzabfall</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>Hausmüll Bioanteil</t>
+          <t>Holzkohle</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>Holzabfall</t>
+          <t>Ablaugen</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>Holzkohle</t>
+          <t>Deponiegas</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>Ablaugen</t>
+          <t>Klärgas</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>Deponiegas</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>Klärgas</t>
+          <t>Bioethanol</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>Biogas</t>
+          <t>Biodiesel</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>Bioethanol</t>
+          <t>Sonst. Biogene flüssig</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>Biodiesel</t>
+          <t>Sonst. Biogene fest</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>Sonst. Biogene flüssig</t>
+          <t>Geothermie</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>Sonst. Biogene fest</t>
+          <t>Umgebungswärme</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>Geothermie</t>
+          <t>Reaktionswärme</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>Umgebungswärme</t>
+          <t>WK&lt;=1MW</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>Reaktionswärme</t>
+          <t>WK&lt;=10MW</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>WK&lt;=1MW</t>
+          <t>WK&gt;10MW</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>WK&lt;=10MW</t>
+          <t>Wasserkraft</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>WK&gt;10MW</t>
+          <t>Wind</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>Wasserkraft</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>Wind</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>Photovoltaik</t>
         </is>
@@ -898,12 +888,6 @@
         <v>0</v>
       </c>
       <c r="BE2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BF2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BG2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1081,12 +1065,6 @@
       <c r="BE3" t="b">
         <v>0</v>
       </c>
-      <c r="BF3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BG3" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1262,12 +1240,6 @@
       <c r="BE4" t="b">
         <v>0</v>
       </c>
-      <c r="BF4" t="b">
-        <v>0</v>
-      </c>
-      <c r="BG4" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1443,12 +1415,6 @@
       <c r="BE5" t="b">
         <v>0</v>
       </c>
-      <c r="BF5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BG5" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1624,12 +1590,6 @@
       <c r="BE6" t="b">
         <v>0</v>
       </c>
-      <c r="BF6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BG6" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1805,12 +1765,6 @@
       <c r="BE7" t="b">
         <v>0</v>
       </c>
-      <c r="BF7" t="b">
-        <v>0</v>
-      </c>
-      <c r="BG7" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1986,12 +1940,6 @@
       <c r="BE8" t="b">
         <v>0</v>
       </c>
-      <c r="BF8" t="b">
-        <v>0</v>
-      </c>
-      <c r="BG8" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -2167,12 +2115,6 @@
       <c r="BE9" t="b">
         <v>0</v>
       </c>
-      <c r="BF9" t="b">
-        <v>0</v>
-      </c>
-      <c r="BG9" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -2346,12 +2288,6 @@
         <v>0</v>
       </c>
       <c r="BE10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BF10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BG10" t="b">
         <v>0</v>
       </c>
     </row>
